--- a/Solution_recipes/Stock_solutions/MgCl2 Stock/stock_MgCl2_25Jan22.xlsx
+++ b/Solution_recipes/Stock_solutions/MgCl2 Stock/stock_MgCl2_25Jan22.xlsx
@@ -1,40 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Yackzan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Solution_recipes\Stock_solutions\MgCl2 Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5675958A-CDB0-4FDD-A61A-5C88BF3BE7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51ED0B01-944F-483E-ADCC-BF1C80D9F323}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="75" windowWidth="14970" windowHeight="15390" xr2:uid="{BA49AD35-975E-4CEA-956C-FEC35699C41C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$O$4</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>M8266</t>
   </si>
@@ -185,6 +179,45 @@
       </rPr>
       <t xml:space="preserve"> Stock</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>D.I. H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>O</t>
+    </r>
+  </si>
+  <si>
+    <t>Fill to 1L</t>
+  </si>
+  <si>
+    <t>Fill to 500mL</t>
+  </si>
+  <si>
+    <t>Fill to 100mL</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>mL</t>
   </si>
 </sst>
 </file>
@@ -295,38 +328,38 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -642,10 +675,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4DBF33-025E-4190-A474-9DB3FE732736}">
-  <dimension ref="A1:O3"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -665,119 +701,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="2" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="4">
         <v>95.21</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="5">
         <f>E3/F3</f>
         <v>95.21</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="6">
         <v>0.5</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="7">
         <f>ROUND(G3*H3,4)</f>
         <v>47.604999999999997</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="8">
         <f>I3/2</f>
         <v>23.802499999999998</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="8">
         <f>I3/10</f>
         <v>4.7604999999999995</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="5"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -791,7 +858,7 @@
     <mergeCell ref="M1:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="76" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Solution_recipes/Stock_solutions/MgCl2 Stock/stock_MgCl2_25Jan22.xlsx
+++ b/Solution_recipes/Stock_solutions/MgCl2 Stock/stock_MgCl2_25Jan22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Solution_recipes\Stock_solutions\MgCl2 Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51ED0B01-944F-483E-ADCC-BF1C80D9F323}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8815D2-1768-4DCB-9EF2-FB308B3A70EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="75" windowWidth="14970" windowHeight="15390" xr2:uid="{BA49AD35-975E-4CEA-956C-FEC35699C41C}"/>
   </bookViews>
@@ -681,7 +681,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -792,7 +792,7 @@
       <c r="H3" s="6">
         <v>0.5</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="8">
         <f>ROUND(G3*H3,4)</f>
         <v>47.604999999999997</v>
       </c>
